--- a/backend/data/001.xlsx
+++ b/backend/data/001.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B761"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,720 +448,9120 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>군 독도방어훈련에…일본 “수용 불가·매우 유감” 항의</t>
+          <t>윤석열, '지지율 하락' 질문에 "글쎄, 잘 모르겠다"</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021.12.29 23:05</t>
+          <t>2021.12.30 17:30</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Germany Daily Life</t>
+          <t>충남 유통 양식 수산물 2건, 동물용의약품 잔류 허용기준 초과</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021.12.29 23:03</t>
+          <t>2021.12.30 17:30</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2021 Goodyear Cotton Bowl Tire Art</t>
+          <t>경찰 신변보호, 범죄피해자 안전조치로 개편… 테이저건 훈련 정례화</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021.12.29 23:03</t>
+          <t>2021.12.30 17:30</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BELGIUM PANDEMIC CORONAVIRUS COVID19</t>
+          <t>[12/30(목) 데일리안 퇴근길 뉴스] 윤석열 "무릎 꿇고 살기보다 서서 죽겠다" 등</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021.12.29 23:03</t>
+          <t>2021.12.30 17:30</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BELGIUM PANDEMIC CORONAVIRUS COVID19</t>
+          <t>울산 오미크론 감염자 5명 추가</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021.12.29 23:03</t>
+          <t>2021.12.30 17:30</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BELGIUM PANDEMIC CORONAVIRUS COVID19</t>
+          <t>광주시교육청, 사립유치원 전수감사</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021.12.29 23:03</t>
+          <t>2021.12.30 17:30</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Germany Daily Life</t>
+          <t>송영길 휠체어 민 천정배 "다시 돌아와 뭉클"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021.12.29 23:03</t>
+          <t>2021.12.30 17:30</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>65세 이상 연금수급률 47%… 남성이 여성보다 1.7배 높아</t>
+          <t>The only way is up from a year of disappointments</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2021.12.29 23:03</t>
+          <t>2021.12.30 17:30</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SPAIN WEATHER</t>
+          <t>금감원 조직 개편·인사...디지털 역량 강화, 부서장 80% 변경</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2021.12.29 23:03</t>
+          <t>2021.12.30 17:30</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SK, CES서 글로벌 탄소 감축 비전 공개…최태원 회장 불참(종합)</t>
+          <t>인포마이닝, 브로드씨앤에스와 손잡고 디지털 헬스케어 사업 전개</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2021.12.29 23:03</t>
+          <t>2021.12.30 17:30</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>NORTH MACEDONIA GOVERNMENT PRIME MINISTER</t>
+          <t>규제특구·스마트공장 '양날개'···지역경제 견인차로 뜬 경북TP</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2021.12.29 23:02</t>
+          <t>2021.12.30 17:30</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Switzerland Tour de Ski</t>
+          <t>네이버페이 고객 100여명 계좌·카드 정보 줄줄 샜다</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2021.12.29 23:02</t>
+          <t>2021.12.30 17:30</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>NORTH MACEDONIA GOVERNMENT PRIME MINISTER</t>
+          <t>가세연, 이준석 서울중앙지검에 고발…1380만원 금품 수수, 성접대 혐의</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2021.12.29 23:02</t>
+          <t>2021.12.30 17:29</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>NORTH MACEDONIA GOVERNMENT PRIME MINISTER</t>
+          <t>65세 이상 내년부터 ATM 수수료 면제</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2021.12.29 23:02</t>
+          <t>2021.12.30 17:29</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>NORTH MACEDONIA GOVERNMENT PRIME MINISTER</t>
+          <t>[포토] 금융과 미술의 만남</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021.12.29 23:02</t>
+          <t>2021.12.30 17:29</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>대한항공·아시아나 조건부 승인 가닥… 공정위, 위원장 한마디에 심사보고서까지 공개</t>
+          <t>신한카드, CBDC 특허 취득…디지털화폐 기술 연구개발</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2021.12.29 23:02</t>
+          <t>2021.12.30 17:29</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>AUSTRIA ALPINE SKIING WORLD CUP</t>
+          <t>KB금융, 플랫폼 기업에 3000억 투자</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2021.12.29 23:02</t>
+          <t>2021.12.30 17:29</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>GREECE FUNERAL KAROLOS PAPOULIAS</t>
+          <t>조응천 의원 "남양주시 전선지중화 사업 확정"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2021.12.29 23:02</t>
+          <t>2021.12.30 17:29</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>“3차도 아직인데 4차 접종 언급… 끝 안보여” 국민 스트레스 어떡하나</t>
+          <t>[포토뉴스] 킹스베리·두리향 딸기 등 이색 과일 선봬는 마트</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2021.12.29 23:02</t>
+          <t>2021.12.30 17:29</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>이번엔 스탠드뉴스... 홍콩, 反中 기자 6명 체포</t>
+          <t>김지형 "삼성 준법위는 백신, 아프고 싫어도 맞아야"</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2021.12.29 23:02</t>
+          <t>2021.12.30 17:29</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>[속보] 프랑스 “29일 코로나 신규 확진자 20만명 넘을 것”</t>
+          <t>한국동서발전, 정보공개 평가 4년 연속 '최우수기관' 선정</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2021.12.29 23:02</t>
+          <t>2021.12.30 17:29</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>AUSTRIA ALPINE SKIING WORLD CUP</t>
+          <t>SK '인텔 낸드' 독립 경영…"인재 이탈 막고 시장 가치 올리겠다"</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2021.12.29 23:02</t>
+          <t>2021.12.30 17:29</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>NORTH MACEDONIA GOVERNMENT PRIME MINISTER</t>
+          <t>중개형ISA 가입자 200만 돌파</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2021.12.29 23:01</t>
+          <t>2021.12.30 17:29</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>AUSTRIA ALPINE SKIING WORLD CUP</t>
+          <t>2차 접종 맞은 16세 사망 신고…"가장 어린 나이"</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2021.12.29 23:01</t>
+          <t>2021.12.30 17:29</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>North Macedonia Politics</t>
+          <t>위식도역류질환 치료제 '펙수클루정', 국산 34호 신약 국내 허가</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2021.12.29 23:01</t>
+          <t>2021.12.30 17:29</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Virus Outbreak France</t>
+          <t>[포토뉴스]신년 맞이 할인 행사에 나서는 유통업계</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2021.12.29 23:01</t>
+          <t>2021.12.30 17:29</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Virus Outbreak France</t>
+          <t>부산 북구, 보건복지부 자활사업 분야 ’우수 지자체‘ 선정</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2021.12.29 23:01</t>
+          <t>2021.12.30 17:29</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Virus Outbreak France</t>
+          <t>바이오젠 인수 '부인’한 삼바…‘바이오시밀러 외도’ 결론은 미지수로</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2021.12.29 23:01</t>
+          <t>2021.12.30 17:29</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Virus Outbreak France</t>
+          <t>"골목상권 살리자" 특화카드·캐시백 쏟아진다</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2021.12.29 23:01</t>
+          <t>2021.12.30 17:29</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>North Macedonia Politics</t>
+          <t>[표] 외국환율고시표 (12월 30일)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2021.12.29 23:01</t>
+          <t>2021.12.30 17:29</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>'테슬라 대항마' 노스볼트, 리튬이온 배터리 첫 생산</t>
+          <t>[신년사]박병홍 농진청장 "여건 맞게 특화작목 집중 육성…지역농업 활성화"</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2021.12.29 23:01</t>
+          <t>2021.12.30 17:28</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>North Macedonia Politics</t>
+          <t>통일부 달력에 김정일 생일, 설날과 동급 ‘빨간색’… 국민의힘 “이인영 사과하라”</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2021.12.29 23:00</t>
+          <t>2021.12.30 17:28</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>日 건강수명 최장 기록…女 75.38세·男 72.68세</t>
+          <t>BRIC 선정 '한국을 빛낸 사람들'에 의정부성모 임성민 교수</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2021.12.29 23:00</t>
+          <t>2021.12.30 17:28</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>윤석열 `일일 셰프`로 변신, 이재명은 `청년 프러포즈`</t>
+          <t>“이거 미친 사람들 아닙니까” 윤석열, 공수처 맹비판</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2021.12.29 23:00</t>
+          <t>2021.12.30 17:28</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>광진구, 노인요양시설 방역 강화...전담반 신설 등 방역시스템 구축</t>
+          <t>[단독] 넷마블도 '돈 버는 게임' 내놓는다</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2021.12.29 23:00</t>
+          <t>2021.12.30 17:28</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>도산서원 찾아 퇴계 이황 선생의 정신 기린 윤석열 후보 [뉴시스Pic]</t>
+          <t>사찰 DNA 없다고 자신하던 청와대, 공수처 사찰 논란엔 침묵</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2021.12.29 22:59</t>
+          <t>2021.12.30 17:28</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>팔레스타인 수반, 이스라엘 방문…최근 무력충돌 해결 논의</t>
+          <t>SKT, 티맵과 '하늘나는 택시' 합작법인 추진</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2021.12.29 22:59</t>
+          <t>2021.12.30 17:28</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>35년간 극장 문 닫은 사우디, 76조원 부어 ‘중동 할리우드’ 만든다</t>
+          <t>메모리에 AI기능 이식…차세대 반도체로 또 앞서간다</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2021.12.29 22:59</t>
+          <t>2021.12.30 17:28</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>11년만에…팔레스타인 수반 이스라엘行</t>
+          <t>지역사회 쉼터 '부산 감천 나누리파크' 개장</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2021.12.29 22:59</t>
+          <t>2021.12.30 17:28</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>인천 목재 공장서 불…2시간 30분만에 완전 진화(종합)</t>
+          <t>野 비단주머니 ‘크라켄’, 윤석열 비방 조직적 댓글 964개 잡았다</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2021.12.29 22:58</t>
+          <t>2021.12.30 17:28</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>비트코인, 4만6천달러선 거래…한달간 17%↓</t>
+          <t>군산 미군기지서 집단감염… 전북지역 1일 확진자 230명</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2021.12.29 22:58</t>
+          <t>2021.12.30 17:28</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>[속보] 프랑스 "29일 코로나19 신규 확진자 20만명 넘을 것"</t>
+          <t>상상인 계열 저축은행, 업계 최초로 주4.5일제 도입</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2021.12.29 22:58</t>
+          <t>2021.12.30 17:28</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>북한은 '진보 대통령' 원한다(?)…"3월 대선 앞두고 도발 가능성"</t>
+          <t>외교부, 해양법 재판관 후보에 이자형 국제법률국장 지명</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2021.12.29 22:57</t>
+          <t>2021.12.30 17:28</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>이준석 "윤핵관 없다는 후보인식 안 바뀌면 변화 없을 것"</t>
+          <t>"최첨단 D램 전력 소비 13% 줄이고…SSD 수명 4배늘려 초격차 더 벌려"</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2021.12.29 22:57</t>
+          <t>2021.12.30 17:28</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>“학생 충원 못 하는 대학은 정원 줄여야” 교육부 지원 조건으로 제시</t>
+          <t>미카도스시, 취약계층에 연탄 1만여 장 기부</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2021.12.29 22:57</t>
+          <t>2021.12.30 17:28</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve">창원시, 시민과 함께하는 동전 진입도로 이용 편의성 점검  </t>
+          <t>내년부터 우회전 후 횡단보도 안 서면 보험료 할증</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2021.12.29 22:57</t>
+          <t>2021.12.30 17:27</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>후원금 4억 털린뒤 "잘 쓰고있다"…'조국 수호' 단체 대표, 檢송치</t>
+          <t>울산 동구 건축주택과, 우수부서 포상금으로 '라면 기부'</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2021.12.29 22:56</t>
+          <t>2021.12.30 17:27</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>日 코로나 신규감염 501명·2개월2주 만에 500명대...총 173만3255명</t>
+          <t>무게는 19㎏, 가격은 5억...무슨 물고기?</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2021.12.29 22:56</t>
+          <t>2021.12.30 17:27</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>인천 목재 공장서 불… "인명피해 없어"</t>
+          <t>대법, '유학생 사망' 음주운전자 유죄 파기…윤창호법 위헌 영향</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2021.12.29 22:56</t>
+          <t>2021.12.30 17:27</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>TK서 `분노 연설` 윤석열 "민주화 끼어든 좌익 이념집단, 정권잡고 국민약탈"</t>
+          <t>[내일 날씨] 아침 최저 -15도까지 '뚝'…한파 계속</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2021.12.29 22:56</t>
+          <t>2021.12.30 17:27</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>민노총 CJ택배노조 1400여명 파업... CJ “다른 택배 이용해 달라”</t>
+          <t>"상승폭 줄겠지만…내년에도 집값 오를 것"</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2021.12.29 22:54</t>
+          <t>2021.12.30 17:27</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>[속보] 프랑스 "29일 코로나19 신규 확진자 20만명 넘을 것"</t>
+          <t>대한민국 우수 교육시설에 세종 해밀학교 대상</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2021.12.29 22:53</t>
+          <t>2021.12.30 17:27</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>[1보] 프랑스 "29일 코로나19 신규 확진자 20만명 넘을 것"</t>
+          <t>정환만 세무사, 불우이웃에 12년간 1억원 이상 기부</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2021.12.29 22:53</t>
+          <t>2021.12.30 17:27</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>벨기에 법원, 일부 과다 방역 규제 제동…극장 재개장</t>
+          <t>수수료 현실화 하는 쿠팡이츠...건당 1,000원 프로모션 종료</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2021.12.29 22:50</t>
+          <t>2021.12.30 17:27</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>24시간 영업 카페 ‘압수수색’...방문손님도 처벌 대상</t>
+          <t>[인사] 금융감독원</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2021.12.29 22:50</t>
+          <t>2021.12.30 17:27</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>8천억 투자유치·해외진출…서울시 창업지원 '결실'</t>
+          <t>바이오젠 인수설 삼바, 하루새 주가 출렁...일부 보도에 급등, 회사측 부인에 제자리</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2021.12.29 22:49</t>
+          <t>2021.12.30 17:27</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>이재명 “‘조국의 강’ 폭 넓어…잘못은 잘못”</t>
+          <t>윤석열, ‘통신조회’ 공수처에 “미친 사람들 아니냐”</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2021.12.29 22:48</t>
+          <t>2021.12.30 17:27</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>코인데스크 코리아, ‘네이버 유료구독’ 1위</t>
+          <t>'쾅' 굉음 내며 5층 벽 뚫고 추락한 택시…운전자 사망·8명 사상[영상]</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2021.12.29 22:48</t>
+          <t>2021.12.30 17:27</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>전수미 화해평화연대 이사장, '北이탈주민 지원' 대통령 표창</t>
+          <t>삼성·LG전자, 올해 '최대 실적' 예고…관전 포인트는</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2021.12.29 22:48</t>
+          <t>2021.12.30 17:27</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>[인사] 울산시 중구</t>
+          <t>[영상] 부산 대형마트 5층 벽 뚫고 추락한 택시…주변 아수라장</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2021.12.29 22:47</t>
+          <t>2021.12.30 17:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>이동학 "박근혜 사면, 울고 싶은 마음... 납득 어려웠다" [이영광의 거침없이 묻는 인터뷰]</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>국민의힘 “무차별적 사찰”vs김진욱 공수처장 “합법”…법사위 ‘통신조회’ 두고 여야 공방</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>한밤중 화재, 원인은 ‘고양이’…“집 비울땐 전기레인지 조심하세요”</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>제주항서 화상 입은 50대 남성 ‘긴급 이송’</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>[인사] 전남 장흥군</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>김형기 전북교육청 행정과장 ‘근정포상’…박태규 사무관 총리상</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>여야, 법사위서 공수처 ‘통신 조회’ 충돌…“불법 사찰” vs “정치 공세”</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>정부 광고 핵심지표 열독률 보니… 조·중·동·한겨레 등 13개사 ‘1구간’</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>‘역사왜곡 논란’ 설강화 측 “근거 없는 비방과 날조된 사실에 강경 대응”</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>서울시의회, 서울농수산식품공사 사장 후보자 청문보고서 채택</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>상상인-상상인플러스저축은행, 업계 최초 '주 4.5일제' 도입</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>청소년 방역패스, 한 달 연기? 전문가들 "전면 재검토"</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>SK하이닉스가 품은 인텔낸드 나스닥 직행</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>남도기자협회, 장성농업기술센터 조재형 농촌지도사에 ‘감사패’ 전달</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>KS수학학원, 7년째 신애보육원생들에게 따뜻한 선물 전달</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>심상정·김동연 “尹, 李와 못하겠으면 나와 토론”</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>'건설노무관리' 김반장, 국민연금 가입 기준 확대 맞춰 업데이트</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>인천시의료원 방문한 안철수 대선후보</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>인천시의료원 방문한 안철수 대선후보</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>"자생식물을 도시 정원식물로" 국립세종수목원, 보급사업 추진</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>"자생식물을 도시 정원식물로" 국립세종수목원, 보급사업 추진</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>"소부장 中企 상용화 기술개발"…중기부, 350억원 투입</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>인천시의료원 방문한 안철수 대선후보</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>[인사] SRB미디어그룹</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>'대만인 사망' 음주운전 파기환송…이유는 '윤창호법 위헌'</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>“어데갔노 손실보장” 경남소상공인 생존권 보장 결의대회</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>[인사종합] 과학기술정보통신부 외</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>의료진과 기념 촬영하는 안철수 대선후보</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>신성이엔지, 에스디바이오센서에 토지·건물·태양광발전소 299억 처분</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>의왕역 전동차 안에서 묻지마 칼부림… 시민 1명 부상</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>인구 126만명 '2035년 고양도시기본계획' 경기도 승인</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>김 총리, '메타버스'서 청년정책조정위 민간위원 활동보고회</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>손님 에르메스 코트에 음식 엎어… 알바생 800만원 날릴 판</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>“가세연 여성혐오와 비하, 도 넘었다”…유튜브에 폐쇄 요구</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>뉴타운 무산된 군포 산본동 2개 지구 재개발정비구역 지정</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>반려견 데리고 가는 스타벅스 매장 생긴다</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>썸에이지 데카론M, 월드 공성전 업데이트</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>[경주 왕의 길] 새로운 신라를 연 문무대왕 2부</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>마이데이터 고객정보 유출…네이버파이낸셜 “피해보상”</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>[인사] 충북도청</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>인천시의료원 의료진 고충 듣는 안철수 대선후보</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>[천안소식] 박상돈 천안시장 명예 해병 됐다</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>투투 대주교 시신 성조지 성당 안치…이틀간 국민에 작별인사</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>인천시의료원 음압병동 방문한 안철수 대선후보</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>[영상] 처음 들은 엄마 목소리…9개월 청각장애 아기 빙그레 웃기만</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>인천시의료원 음압병동 방문한 안철수 대선후보</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>수의계 "공중방역수의사 증원 필요"…추가합격자 수 공개</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>인천시의료원 현황 청취하는 안철수 대선후보</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>인천시의료원 방문한 안철수 대선후보</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>울산대병원, 보건복지부 응급의료기관 평가 A등급 획득</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>[인사] 경기 여주시</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>'청소년 방역패스' 조정안 내일 발표…한달 연기 검토</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>&lt;인사&gt;금융감독원</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>내년부터 국내 의료기기 베트남 수출 빨라진다</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>방역패스 줄이고 거리두기 개편…백신 9천만회분 구매</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>중증률 낮은 오미크론 조만간 우세종…거리두기 대폭 완화될 듯</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>삼육부산병원과 함께하는 따뜻한 겨울나기</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>[신년사]윤성로 4차위원장 "한국, 과감한 혁신 통해 '핑크펭귄' 거듭나야"</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>강명원·장현덕 홍보협력계장 등 87명 총경 승진</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>'조국 동생' 조권씨, 웅동학원 채용비리로 징역 3년형 확정</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>고승범 “가계부채 관리는 계속…실수요자는 보호할 것”</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>김종인 “반문 전략 없다···끝난 정권 이야기해봐야 의미 없어”</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>野 내홍속 與는 대통합 가속…이재명,안보 행보로 중도층 겨냥</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>윤석열 후보 "국가유공자 참전수당 2배 인상 일류보훈 국가 만들것"</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>두 손 들어 화답하는 윤석열 후보</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>기댈 곳 없는 학폭 피해자…보호 대책 유명무실</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>경남 219명 확진·2명 사망…어제 누계 197명(종합2보)</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Fish prices going up higher than inflation</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>다부동 전적기념관 찾은 윤석열 후보</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>윤석열 "일류보훈 국가 만들겠다"</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>칠곡 '6·25 전투지' 찾은 尹 "전투 나섰던 청년들 마음으로 정치"</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>6.25 최대 격전지 다부동 전적기념관 찾은 윤석열 후보</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>참배하는 윤석열 후보</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>발걸음 옮기는 윤석열 후보</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>윤석열 후보 '지지자들에게 두 팔 벌려 인사'</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>윤석열 후보 '밝은 표정으로 화답'</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>두 팔 벌려 인사하는 윤석열 후보</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>중국, 로스 전 상무장관 등 미국 인사 5명 '맞불제재'</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>부당 지시 상사와 언쟁 후 뇌출혈로 쓰러져 사망… "업무상 재해"</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>천정배·유성열·민병두 등 민주당 복당…송영길 "함께 모였다"</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>(LEAD) Hyundai-plant suspension</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>구리시민이 선정한 2021년 시를 빛낸 뉴스는 ‘GH 유치 확정’</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>세상 바꾸는 ‘새로운 창조’</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>"공급량 턱없이 부족…서울 아파트 불패 5~6년간 지속된다"</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>中企-대학 손잡고 석·박사급 AI 인재 키운다</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>김준희 출판진흥원장 "출판계 갈등 조정 최선 다하겠다"</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>배현진, 소아암 어린이 환우 치료비 지원 1000만원 기부</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>층간흡연도 욕먹는데 아파트 엘베 안에서 버젓이…아파트 측 '흡연자 3명 사진' 공개</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>[특징주] LG화학, 61만5000원 마감…올해 25% 곤두박질</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>"새해엔 나만의 경제노트 한번 써 보세요"</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>서울시의회, 서울농수산식품공사 사장 후보자 청문보고서 채택</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>네이버클라우드, 과기정통부-NIA와 '에듀테크' 역량 강화</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>잎 떨어진 나뭇가지, 숲을 배경으로 수묵화 그리다</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>당국 "노바백스 백신 내달 국내 사용허가 전망…1·2차접종에 활용"</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>"연내 10만달러 간다더니"…비트코인의 배신?</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>[스타워즈] 메리츠증권 손지웅, 누적수익률 40% 달성…최종 '우승'</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>[아!이뉴스] 속도 저하된 LTE…P2E 게임 논의 어찌할꼬</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>[독자와 함께]6·25 참전해 손가락 절단됐는데 '증거 불충분'으로 전상군경 등록 기각</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>인천시, 만 35~39세 청년에 월 최대 20만원 임차료 지원</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>검찰, 김정태 하나금융 회장 소환…곽상도 50억 의혹 조사</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>검찰, 김정태 하나금융 회장 소환…곽상도 50억 의혹 조사</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>바이든의 2022년, 외교도 험로 예상</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>올해 연말도 홈파티가 대세···스마트한 가전제품들 인기</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>유니클로 회장 "일본 헝그리 정신 없다"</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>美 피스컬노트, '대체데이터' 에이셀테크놀로지스 인수 계약</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>"포스트 코로나 시대 관광객 유치" 온다-위홈 맞손</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>도쿄올림픽 3관왕 광주여대 안산, 보신각 '제야의 종' 타종</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>'미칠듯한 가려움' 싹~ 아토피치료제 美FDA 승인, 부작용은</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>경남도·진주시·지역대학 협력, LH 신규채용 이끌어</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>고양시, '2035년 고양도시기본계획' 경기도 최종 승인</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>[오뉴스 출연] 심판론 뒤집은 안정론 (김형준 명지대 교수)</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>가스공사, 115만t 규모 개별요금제 천연가스 매매계약 체결</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>대장동 지역구 김은혜 의원 "이재명 후보, `어게인 대장동`이라니…두렵다"</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>'거리 사진' 선구자 사빈 바이스 별세</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>靑 NSC, 글로벌 기술 보호 대책 논의</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>서구, 행안부 ‘주민참여예산제도 운영평가’서 우수 지자체 선정</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>정혁훈 농업전문기자, 농식품부 장관상 수상</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>박현주재단 해외교환 장학생 지금까지 누적 6018명 지원</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>美 군 철수 넉달만에…아프간 여성·인권 특별대사 임명</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>"3기 신도시 입주 너무 늦어…내년에 내 집 마련 서둘러야"</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>“여친과 헤어져서 화풀이”…귀가 여성 주차장 끌고 가 폭행</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>[인사] 과학기술정보통신부 / 기상청 / 관세청 등</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>경남 진주 폐자재 처리업체 화재…1시간 20분만 완진</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>[단독] 박근혜 서간집  입수, 진실 강조한 朴,윤석열 언급은…</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>광주 남구 "도시경쟁력 강화할 것"</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>[기자수첩] 인수확정 전에 주인행세부터 하는 에디슨모터스</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>폐교에 친환경 녹색건축물 조성… 환경교육시설 거점시설로 운영.</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>혐오 시설서 체육시설로 탈바꿈한 양산신도시 남부유수지, 문화체육센터로 또 변신</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>대신증권, 42억 규모 자기주식 처분</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>윤석열 "처-동생-친구까지 사찰"···"공수처, 부정 선거 자행" 압박</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>[부음] 백한기씨 별세</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>한국지역난방공사, 한국가스공사와 천연가스 개별요금제 매매계약 체결</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>[인사] 대전 대덕구</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>'경찰의 꽃' 총경 승진…장현덕 · 이기범 등 87명</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>직장 상사와 다툰 직후 쓰러져 사망‥법원 "업무상 재해"</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>[신년사] 노정희 중앙선관위원장 "공정한 대선 관리…사회통합 기여할 것"</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>봉화 산불 0.5㏊ 태우고 2시간 만에 진화(종합)</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>[게시판] 성신여대-KIA타이거즈, 과학 야구 시스템 구축 협력</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>포스코-경동나비엔 따뜻한 동행…취약계층 보일러 무상 교체</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>다부동 전적기념관 찾은 윤석열 후보</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Industrial production rises 5.9 percent in November</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>[동정] 권덕철 복지장관, 서울아산병원 의료진과 간담회</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>[인사] 전남 장흥군</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Top business stories of 2021</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>SOUTH AFRICA ARCHBISHOP TUTU LYING IN REPOSE</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>주한미군 일주일간 코로나19 확진 467명 폭증…"역대 최다"</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>[인사] 담양군</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>국토부, 대구 등 집값 하락 지역에 “조정대상지역 해제 없다”</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>현대바이오 CMG제약 '비타브리드' 국내 독점 판매</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>아이와 임산부 위한 '강동아이맘택시' 내년 지원금 2배로</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>'불수능'에도 수시 이월인원 대체로 감소...SKY 정시 최종선발인원 4,386명</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>충남도 산림자원연구소, 3개 도립공원 새해맞이 행사 전면 금지</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>“美 식료품 가격 내년에도 ‘고공행진’ 불가피”</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>정부, AI 학습용 데이터 구축·플랫폼종사자 고용보험 적용</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>국내 유일 한국산 호랑이 박제 표본이 113년째 초등학교에 전시된 이유는?</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>안철수 후보로 갈아탄 2030</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>[유료방송 가이드라인] ③ '선계약 후공급'이 뭐길래?</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>부산 동구 ‘2021년 도시재생 한마당’ 대상 수상</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>신세계아이앤씨, 2021년 일자리창출 유공 정부포상 국무총리 표창 수상</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>WSJ “美 코로나19로 노인 학대 급증”</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>경기도교육청, '이해충돌 방지법' 교육 영상 제작</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>"朴 '진밥 달라'며 강해졌다"…병원앞은 사면축하 화환 1000개</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>윤석열 후보 '자유 민주 국가 확실히 지키겠다"</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>윤석열 "文정부 北 눈치 보기로 안보태세 엉망"</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>다사다난 2021년 마지막날도 한파…중부지방 낮에도 영하</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>[인사] 전남 보성군</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>윤석열 "文정부 안보 무능"</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>[인사] 남양주시</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>윤석열 후보 "참전용사 국가의 책임과 예우 강화"</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>농식품부, 낙농진흥회 의사결정체계 개편 나선다</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>'중국 반도체 항모' 칭화유니, 결국 중국 정부가 회생 모색</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>윤석열 후보 반기는 경북 지지자들</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>윤석열 후보 "일류 보훈국가 만들것"</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>윤석열 '두 팔 번쩍'</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>보건당국 "16세 청소년, 코로나19 백신 접종 후 사망 첫 사례 접수"</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>해맞이는 이번에도 참아 주세요!…주요 명소 대부분 폐쇄</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>의료진과 기념촬영하는 안철수 후보</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>정부 “2050년까지 플라스틱 100% 바이오 원료로 대체”…순환경제 강화 나선다</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>"의도적 대선 개입"… 野, 법사위서 '통신조회' 공수처장 추궁</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>[경남] 연일 200명 안팎에 오미크론 9명, 12월 5500명 넘어</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>대한방직, 사내근로복지기금 출연 위해 자사주 10억 처분</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>[인사]금융감독원</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>보스아고라, 피스트 트러스트와 업무 협약 체결</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>[인사]괴산군</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>경남도교육청, 교육부 '홍보유공 우수기관' 선정</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>'행진' 英근위병, 넘어진 소년 무참히 밟고 지나가…관광객 '충격' [영상]</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>[유럽개장] 장 초반 혼조세…英 0.12%↓</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>"온실가스 1만1700톤 감축" 도봉구민 1만3400명의 약속</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>내년 '만 12세' 어린이 47만5936명도 백신 접종(종합)</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>"강원권 고속도로 해맞이 차량 하루 평균 32만대 예상"</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>[인사] 대전시 대덕구</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>창원시, 학산배 전국장사 씨름대회 지속 개최한다</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>출생신고 안 돼 유령처럼 산 24·22·15살 세 자매 발견</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>부산 대형마트서 택시가 벽 뚫고 추락…8명 사상</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>부산항만공사, 중대재해 예방 간담회 개최</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>尹, 벌어지는 지지율 격차 타개책 있나</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>올해 개인 순매수 상위 10종목 8.5% 손실…팔아치운 종목은?</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>부산교육청, 지역화 환경교과서 ‘부산의 환경과 미래’ 개발</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>이재명, TK 찾은 김혜경 칭찬 "결혼 잘했다는 생각 더욱 더 들어"</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>"한잔인데 뭘"하다 최대 1억7천만원…음주운전 본인부담금 높인다</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>탄광맥주, 탄광촌 저소득 아동 위한 사회공헌 활동 전개</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>검찰, 김기표 전 청와대 비서관 투기의혹 보완수사 요구</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>尹, 대구 신산업 현장 방문…"로봇세, 말이 안 되는 이야기"</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>의왕역 전동차 안에서 묻지마 칼부림…시민 1명 부상</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>미국에서 제주로 들어온 입국자, 또 '오미크론 변이' 확진</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>위두커뮤니케이션즈, 볼류메트릭 '예체능 온라인 콘텐츠' 개발</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>LH 일반정규직 250명 신규 채용…"지역인재 기회 보장"</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>코레일관광개발, 임직원 1004만보 걸음 모아 서울시사회복지협의회에 기부금 전달</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>[2022 정시 입학정보] 상명대학교</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>현대차, 내달 아산공장 셧다운…“전기차 생산 준비”</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>안산 한도병원, 국내 최초 민간주도형 감염병전담병원 추진</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>엔픽셀 "그랑사가 새 콘텐츠로 검은 호랑이 해 연다"</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>[인사]KBS</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>"서서 죽겠다" "미친사람들"…尹 연일 초강경 발언, 왜?</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>양주석 회장, 잘나가던 30대말 휠체어 신세, 의료기기 제조로 재활· 재기</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>KAIST, 학습 없이 발생하는 뇌 인지기능 원리 밝혀...AI 적용도 기대</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>손병두 이사장 "올해 코스피 최고치, IPO 20조, 코스닥 1500개사 달성"</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>李 "그린벨트 풀어 주택공급, 유연하게 고민"</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>KBS 충남 설립 '청신호'...내년 타당성 조사 용역</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>세밑에도 여야 공방 지속…상대 후보 네거티브 최고조</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Mideast Drugs Seizure</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Mideast Drugs Seizure</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>박병석 국회의장, 수석 위원 인사</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>화성시, 쓰레기 종량제 봉투 평균 9.9% 인상</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Mideast Drugs Seizure</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>하이투자증권, 신임 홍원식 대표이사 선임</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>SOUTH AFRICA ARCHBISHOP TUTU LYING IN REPOSE</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>국민의힘 경남도당, 대선 준비에 만반…총괄대책위원장에 김태호·이달곤</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>일본 증시, 오미크론 우려 속 하락 마감…닛케이 0.4%↓</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>한은 “탄소중립, 은행 건전성 악화...BIS비율 최대 5.8%p 하락”</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>눈 내리는 대전</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>울산시 행정박물 도록 발간... 릴 녹음기 등 사무집기 볼거리</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>"갈수록 교묘해지는 온라인 쇼핑몰 가품 다 찾아낸다"</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>웰스 공기청정기, '대한민국 건강주택대상' 종합대상</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>[노컷브이]윤석열 '막말 논란' 커지는데…김종인 "무슨 실수했나"</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>PBS가 출연연 연구 몰입 저해...대선캠프 과기정책 반영돼야</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>한돈자조금, ‘고기, 원칙’과 한돈인증점 업무협약 체결</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>KT, 5G 커버리지 ‘꼴찌’…실적 개선 폭은 ‘최대’ 예상</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>[인사] 기상청</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>남성 중심 보수 조직 금융권에 ‘우먼파워’ 바람이 분다</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>경찰, '윤석열 처가회사 공흥지구 특혜의혹' 약 한달 만에 압수수색</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Consumption falls steepest in 16 months</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>올해 글로벌 수소차 판매 2배 늘어…판매량 '1위'는 현대차</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>눈 내리는 대전</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>`아듀 2021`…특징주 TOP5로 본 올해의 증시</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>눈 내리는 대전</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>꼴찌 겨우 면한 코스피, 올 상승률 G20 1위→18위 추락</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>눈 내리는 대전</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>'소부장 중소기업' 상용화에 학·연 기술 보탠다</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>칠곡 방문해 지지자들에게 발언하는 윤석열 후보</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>윤석열 후보가 다부동 전적기념관 방문해 남긴 방명록</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>“재택치료 확대…위험도 낮은 시설부터 방역패스 해제”</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>윤석열, '24시간 영업' 카페 압수수색에 "어디 무서워서 살겠나"</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>양성일 차관, 사회복지관 방역 상황 점검</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>부산 '마트 5층'에서 택시가 떨어졌다…운전자 사망, 7명 부상</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>양성일 차관, 충북 증평군 사회복지관 방문</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>구국용사충혼비에 헌화하는 윤석열 후보</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>구국용사충혼비 참배하는 윤석열 후보</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>구국용사충혼비 참배하는 윤석열 후보</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>칠곡 찾은 윤석열 후보</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>윤석열 후보, 구국용사충혼비 참배</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>구국경찰충혼비 참배하는 윤석열 후보</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>윤석열 후보, 구국용사충혼비 참배</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>다부동 전적기념관 찾은 윤석열 후보</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>칠곡 찾은 윤석열 후보</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>칠곡 찾은 윤석열 후보</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>구국용사충혼비 참배하는 윤석열 후보</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>구국용사충혼비 참배 마친 윤석열 후보</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>지지자들에게 인사하는 윤석열 후보</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>지지자들 향해 인사하는 윤석열 후보</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>경북 칠곡 방문한 윤석열 후보</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>지지자들에게 인사하는 윤석열 후보</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>경북 칠곡 방문한 윤석열 후보</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>여가부, 디지털 성범죄 피해자 지원센터 현장점검</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>여가부, 디지털 성범죄 피해자 지원센터 현장점검</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>현장시장실 열과 대학생 만나는 허태정 시장</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>김상호 하남시장 "'살자리·놀자리·일자리' 어우러지는 덕풍3동 되도록 최선"</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>전북 오미크론 확진자 3명 추가…누적 124명</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>술 취해 구급대원 폭행한 30대 벌금 500만 원</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>양성일 차관, 삼보사회복지관 방문</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>시노백 백신 맞는 인도네시아 소녀</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>코로나19대응 현황을 듣고 있는 안철수 후보</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>인도네시아 마을, 6~11세 어린이 코로나19 백신 접종</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>[신년사]김현수 농식품부 장관 "농업, 데이터 기반 첨단산업 변모"</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>남양주시, 시민소식지 열수 5·6호 동시 발행</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>[인사]영양군</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>신호대기 중인 차량 위로 '날벼락'</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>부산 북항 오페라하우스 '중구' 품으로…동구청 소송 기각</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>'3회 연속 발사' 한국형 테이저건 도입‥경찰, 현장 대응력 강화</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>파리의 일상 기록한 여류 사진작가 사빈 바이스 사망</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>"엎친 데 덮친 유럽"…AI도 대유행 조짐</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>슈워제네거, 10년 만에 이혼 종결···재산 분할 합의</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>오산 공군부대 병사 1명 오미크론 변이 추가 확인‥군 내 4명 감염</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>금감원, 대대적 조직개편 단행, 감독총괄조직 재구성</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>"농촌에 외국인 끌어들이려면 체류자격별 '맞춤형 서비스' 해야"</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>충남도, 안면도 수목원에 무장애나눔길 조성</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>내년부터 입양축하금 200만원·입양아동 양육수당 월20만원 지급</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>11월 생산 3.2% 늘었지만 소비는 1.9%↓</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>SM그룹, ‘안성 우방아이유쉘 에스티지’ 청약 돌입</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>전주시, 지방재정 우수사례 평가 국무총리상 받아</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>인도네시아 마을, 6~11세 어린이 코로나19 백신 접종</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>[신년사]김현수 농식품부 장관 "농업, 데이터 기반 첨단산업 변모"</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>남양주시, 시민소식지 열수 5·6호 동시 발행</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>[인사]영양군</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>신호대기 중인 차량 위로 '날벼락'</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>부산 북항 오페라하우스 '중구' 품으로…동구청 소송 기각</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>'3회 연속 발사' 한국형 테이저건 도입‥경찰, 현장 대응력 강화</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>파리의 일상 기록한 여류 사진작가 사빈 바이스 사망</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>"엎친 데 덮친 유럽"…AI도 대유행 조짐</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>슈워제네거, 10년 만에 이혼 종결···재산 분할 합의</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>오산 공군부대 병사 1명 오미크론 변이 추가 확인‥군 내 4명 감염</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>금감원, 대대적 조직개편 단행, 감독총괄조직 재구성</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>"농촌에 외국인 끌어들이려면 체류자격별 '맞춤형 서비스' 해야"</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>충남도, 안면도 수목원에 무장애나눔길 조성</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>내년부터 입양축하금 200만원·입양아동 양육수당 월20만원 지급</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>11월 생산 3.2% 늘었지만 소비는 1.9%↓</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>SM그룹, ‘안성 우방아이유쉘 에스티지’ 청약 돌입</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>전주시, 지방재정 우수사례 평가 국무총리상 받아</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>5층 벽 뚫고 추락한 택시… 신호대기 차량 10여 대 덮쳤다</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>미 월가 몰락 시초 베어스턴스의 지미 케인 전 CEO 별세</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>미 월가 몰락 시초 베어스턴스의 지미 케인 전 CEO 별세</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>"방역이냐, 일상이냐"…美 확진자 격리 단축에 찬반 논란</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>[부고] 이승훈(대화 대표이사)씨 빙부상</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>통일부 달력에 '김일성 생일' 기재…野 "기념일까지 챙겨줄 건가"</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>尹 "공수처 미친 사람들"…李 "윤석열 검찰도 조회"</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>'인천 장애인 질식사' 관련 복지사 업무복귀…유족 반발</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>외롭지 않니?…강릉서 관찰된 재두루미</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>외롭지 않니?…강릉서 관찰된 재두루미</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>천정배 등 탈당인사 10명 민주당 복당</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>민주당 돌아온 천정배 전 의원</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>외롭지 않니?…강릉서 관찰된 재두루미</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>천정배 등 '호남 비문계' 10명 민주당 복당</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>박근혜 오늘 자정 사면 복권…당분간 입원 치료 예정</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>인사말하는 유성엽 전 의원</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>외롭지 않니?…강릉서 관찰된 재두루미</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>환영 꽃다발 받는 천정배</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>민주당 돌아온 유성엽</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>홀로 먹이활동 하는 재두루미</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>민주 선대위, 미디어·ICT 특별위 출범…MZ세대·전문가 포함</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>'김건희 겨냥' 현수막 서울 도심 곳곳 등장‥구청 수거 나서</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>홀로 먹이활동 하는 재두루미</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>홀로 먹이활동 하는 재두루미</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>지방 부흥 적임자…이재명 40.2%, 윤석열 36.8% [한신협 여론조사]</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>[신년사] 강삼권 벤처기업협회장 "혁신 창업생태계 조성 노력"</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>NH손보 최문섭 대표 취임</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>아주대학교, '박성준.김주희 공동연구팀...IGZO 기반의 바이오센서 개발에 성공'</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>경남에 코로나19 확진 148명 추가…도내 하루 219명 감염</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>유성엽 전 의원과 기념촬영하는 송영길 대표</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>[송년호] 젊은 세대 문해력 저하…지표로 드러나</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>[Herald Interview] Jo Gwangil blazes fast raps to express emotions in his heart</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>농어촌공사, 제3기 사내벤처팀 ‘MWP 블루오션’팀 선정</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>[인사] 전북 고창군</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>제주 오미크론 감염 1명 추가…16명 신규 확진</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>김종민 "통신 사찰로 공수처장 구속시키면 윤석열은 무기징역감"</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>입당인사들과 기념촬영하는 송영길 대표</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>섬개연, PET병 재활용 그린섬유사업 추진</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>'24시간 영업' 예고한 자영업자 또 나왔다</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>입당사하는 천정배 전 의원</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>[인사] 광주지방국세청</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>천정배 전 의원에게 꽃다발 전달하는 송영길 대표</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>매서운 한파 속 충남·호남 많은 눈</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>입당사하는 천정배 전 의원</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>건설 톱10 상장기업 올해 주가·실적 희비… 삼성물산 17%↓</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>입당인사들과 기념촬영하는 송영길 대표</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>천정배 전 의원과 기념촬영하는 송영길 대표</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>재계 불어닥친 ‘ESG’ 광풍, 환경투자 급증···’무늬만 ESG’ 논란도 [키워드로 보는 2021 산업 ⑤]</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>금감원, 사전예방 감독 강화 조직개편 및 부서장 인사 실시</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>[인사] 금융감독원</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>방역당국 "노바백스 백신 내년 1월 국내 사용허가 전망"</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>[부고] 김강정(전 MBC보도국장·iMBC 사장)씨 별세</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>국토부, 현행 규제지역 유지…대구·세종 조정대상지역 해제 유보</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>경찰, 신변보호 대신 범죄피해자 안전조치 만든다...현장대응력 강화 대책 발표</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>종이신문 열독률 13.2%…경영·전문직 구독 비중 높아</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>[DD 퇴근길] 5G 속도, SKT가 가장 빨랐다</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>"문신 있는 축구선수 국가대표 선발 제외"…중국, 사상교육 강화</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>조국 일가, 두번째 실형 확정…동생, 대법서 징역 3년(종합)</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>SK하이닉스, 전 직원에 특별성과급 300% 지급</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>입당사하는 유성엽 전 의원</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>경남 199명 추가 확진…과반은 확진자 접촉 추정·집단감염도 지속</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>환영사하는 송영길 대표</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>'최태원 기획' 국가발전 프로젝트, 최종 우승자 내달 1월 2일 가려진다</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>더불어민주당 입당식</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>부동산 규제지역 현행대로 유지…대구-창원 등 해제건의 수용 안해</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>송영길 대표 휠체어 밀며 입당식 참석하는 천정배 전 의원</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>전북 대부분 대설주의보…최대 15cm 눈 전망</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>걸음 재촉하는 시민</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>靑 NSC 상임위 개최…글로벌 기술보호 대책 논의</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>K-택소노미, 결국 원전 뺐다</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>“걸어가던 父, 이유 없이 14번 찔렀는데…그 놈은 조현병으로 감형“ 유족의 울분</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>'쇼미10' 조광일·신스 무대 'U+다이브'서 VR로 본다</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>[송년호] 글 이해 능력 떨어지는 젊은 세대, 이대로는 위험하다</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>국민 65% ‘朴 사면’ 잘한 결정…민주당 지지층 절반도 찬성 [한신협 여론조사]</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>경남교육청, '도민 소통' 활성화 우수기관 선정되다</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>고승범 "과도한 부채가 금융안정 해치는 일 막겠다"</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>은행, 디지털 바람…새 임원 절반 '테크전문가'</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>이통 3사, 새해부터 휴대폰 할부금 상환 방식 명확히 알린다</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>네이버페이 이용자 100여명 자산정보 유출…금융당국, 경위 점검</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>유영하 "박근혜 전 대통령 석방 전후 입장발표 따로 없다"</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>창원에서 국내 1호 수소생산기지 본격 가동, 수소가스 1t 첫 출하</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>‘소련’ 시절 그리웠나…‘역사 다시쓰기’ 나선 러시아, 인권단체까지 해산</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>[인사]생명보험협회</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>[단독] "대부업 대출 문턱보다 더 높다" 저축은행 대출 승인율 6%대</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>"구로·남구로시장 380개 점포, 360도 가상현실로 구경하세요"</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>文정부 각세우며 연정 띄우는 李…"좋은 인재라면 안 가려"(종합2보)</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>눈 쌓인 공원</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>윤석열, 방역지침 어긴 매장 압수수색에 "국민만 만만한 것"</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>울진 공무원, 영덕까지 가서 술집 행패…군민들 개탄</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>현대차 인증중고차 나오나…내달 생계형 적합업종 심의위 개최(종합)</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>눈 내리는 풍경</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>이상민 "송영길, 안철수 연대하려면 사전 준비했어야…뜬금없이 러브콜"</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>내년부터 입양축하금 200만원·입양아동 양육수당 월20만원 지급</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>눈 쌓인 공원</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>민주당 돌아온 천정배</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>[콘텐츠 핫&amp;뉴] 한빛소프트 ‘오디션’, 연말연시 이벤트서버 운영</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>'홍대 미대 교수 성희롱 의혹'…홍대 측, 징계위원회 구성</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>코오롱FnC, 골프복 타고 화려한 부활</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>구지은 혁신 통했다…아워홈, 흑자전환</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>빕스 홈파티팩 연말 판매 4배 늘어</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>계룡산국립공원 새해 해맞이 행사 전면 금지</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>[포토] 개점 앞둔 '북한강 뷰' 스타벅스</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>2021 증권·파생상품시장 폐장식 부산서 개최</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>김건희 얼굴에 ‘허위경력자’…서울 곳곳 불법 현수막 결국 철거</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>기상산업협회, 기상 인공지능 학습용 데이터 구축</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>국민의힘 35.3% 민주당 30.6%…“후보 가족 문제, 투표 영향” 53.6% [한신협 여론조사]</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>Main opposition denounces CIO’s alleged surveillance of lawmakers</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>금감원, 조직개편 실시… "사전예방적 금융감독 강화"</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>김종인 "윤석열·이재명 토론? 무조건 거부 아니지만…"</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>[포토] 든든하게 새해 맞이하세요</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>다부동 구국경찰충혼비 참배하는 윤석열</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>충북, 어린이집·학교 감염 '지속' 58명 확진…누적 1만1482명</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>제주 오미크론 변이 확진자 또 발생…누적 4명</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>최윤범 고려아연 부회장 "신재생에너지·그린수소로 탈탄소시대 이끌 것"</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>윤석열, "자유민주주의를 지키겠습니다"</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>지앤넷, 자생한방병원에서 실손보험금 청구 간소화 서비스 시작</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>[인사]우정사업본부</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>녹색분류에 원전 배제…한수원 이어 산업부도 재검토 요청</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>창원 회성동 자족형 복합행정타운 내년 착공…행정절차 끝나</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>윤석열, 다부동 전적기념관 방명록</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>충청·호남에 많은 눈…내일도 추위 이어져</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>법사위, '통신조회' 논란 현안 질의…"과도한 것 아냐"</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>윤석열-김종인, '토론 거부' 놓고 엇박자</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>오늘의 운세 (2021년 12월 31일 金)</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>대법, ‘웅동학원 채용 비리’ 조국 동생 징역 3년 확정</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>울산대 캡스톤디자인 경진대회 성료…IT융합학부팀 대상</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>"공수처장 구속 수사" 윤석열, 2017년에는 "통신 조회 사찰 아냐"</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>3배 레버리지 ETF `뭉칫돈`…서학개미들 아찔한 베팅 [오민지의글로벌ETF가이드]</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>부울경 지지율…윤석열 45.7%, 이재명 35.2% [한신협 여론조사]</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>공수처장 "검·경도 하는 통신조회…野, 알면서 그러진 않을 것"</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>코로나 이후 원격수업 늘며 전자기기·영상 미디어 친숙해진 영향 커</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>사명감 넘치는 경찰 얼마나 많은데…부실대응 뉴스 쏟아질땐 속상하죠</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>위드코로나 영향...11월 면세점 매출 1조7000억대 '반짝 회복'</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>이재명, 서해5도 경비단 찾아 "중국의 불법 조업, 원칙적 대응 필요" [TF사진관]</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>[여명]  ‘부동산 잔혹사’ 되풀이하지 않으려면</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>데이트폭력·가정폭력에…신변보호 건수 3년새 두배</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>올해 마지막 날은 술 대신 ‘회고모임’ 어떤가요</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>금감원 대규모 조직개편 단행…부서장 90% 교체</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>LG전자, 퓨리케어 에어로타워 오브제컬렉션 출시 기념 팝업스토어 운영</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>하이투자증권, 홍원식 대표 신규 선임</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>German carmakers take up 60 percent of imported car sales</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>내년 신규 접종 대상 2010년생, 방역패스 적용 안해···청소년 방역패스 계획 내일 발표</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>하이투자증권, 홍원식 대표 신규 선임</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>German carmakers take up 60 percent of imported car sales</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>내년 신규 접종 대상 2010년생, 방역패스 적용 안해···청소년 방역패스 계획 내일 발표</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>[인사] 금감원</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>[인사]질병관리청</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>군포시, 산본동 일원 2개 지구 재개발 정비구역 지정</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>도교육청 우수·하반기 모범공무원에 대한 정부포상 전수</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>"석방이 시작입니다" 박근혜 입원 병원앞 뒤덮은 1000개 화환</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>내년 집값 `상저하고`…하반기 전세불안 영향</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>창원시 하반기 퇴임식 개최…66명 공직 떠나</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>문 대통령 지지율 연중 최고치… 청와대 "위기극복 노력 인정받았다"</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>40년 넘은 울산 학교건물 31곳 개선…2025년까지 3천600억 투입</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>[단독] 영업제한 처벌에 '노래방' 빠뜨린 서울시..."고시 '복붙'하다 실수"</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>[경남소식] 도교육청, 교육부 주관 '홍보 우수사례' 기관 선정</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>"추가합격 전화인 줄" 수험생 울상…허경영 "내 전화는 곧 행운"</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>은행 가계대출 영업 본격 재개 예고, 관리는 더 깐깐해진다</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>국힘 "野 대선후보 사찰이 文 검찰개혁 '민낯'…대선개입"</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>한은 충북본부, 설 앞두고 특별자금 150억원 지원</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>지지자들 향해 인사하는 윤석열 대선후보</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>지지자들 향해 인사하는 윤석열 대선후보</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>합천군 쌍백면 이장협의회, 이웃돕기 성금 100만원 기탁</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>[인사] 경찰청</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>오산 공군부대 오미크론 확진 1명 추가...軍 전체 누적 4명</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>다부동 전적기념관 찾은 윤석열</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>강명원 서울청 홍보협력계장 등 87명 '경찰의 꽃' 총경 승진(종합)</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>통영해경, 도서벽지 노인정 25곳에 쌀 100포대 전달</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>[경기] 경기도, 내년부터 아파트 착공 전 설계 자문 적용</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>철원군, 소상공인 긴급운영자금 100만원씩 지원…총 30억원 규모</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>지지자들 향해 인사하는 윤석열 대선후보</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>2021 한국교회 결산 ⑧ 다사다난 한국교회…조용기 목사 별세에서 '차별금지법' 논란까지</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>[뉴스큐] 박근혜, 오늘 자정 석방...李·尹 지지율 요동</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>李, 서해 5도 찾아 "영토주권 수호" 안보 강조.. 새해 첫 날 '부산행'</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>내년 세계 최대 합동해상훈련…美 초청받은 대만 첫 참가하나</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>범어4동 '가로주택정비 vs 재개발' 주민들 신경전…'난개발' 우려까지</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>올해 충남 대표 문화상품에 '용봉환두' 선정</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>[인터뷰] 공유 "'고요의 바다', 한국 SF의 의미 있는 첫걸음"</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>혈전·동맥경화 일으키는 붉은고기 속 주범은 바로 ‘ET’ (연구)</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>유치하지만 화려한 파티룩…세기말 'Y2K패션'이 돌아온다</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>[인사] 우정사업본부</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>운영 중단 위기에 이은 이사장 사임까지 ‘혼수상태’ 패션연…관리기관은 나몰라라</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>'임인년' 맞이 광안리해수욕장에 소 가고 검은 호랑이 왔다</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>성신여대-KIA 타이거즈, '데이터 기반 과학 야구 시스템 구축' 협약</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>‘금융위원장 미션’ 언급한 고승범 “부동산으로 자본 안흐르게”</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>李 “北에 할 말은 하겠다”… 대북정책도 文정부와 차별화</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>[기자의 눈] 기업 현실 무시한 중대재해법</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>다부동 전적기념관 구국용사충혼비 참배하는 윤석열</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>보은군, 2022년 공수의 위촉장 수여</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>인사하는 윤석열 대선후보</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>[경기] 사립학교 교직원 채용 도교육청에 위탁할 경우 지원</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>양주시청 직장운동경기부 여자볼링선수단, 이웃돕기 성금 기부</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>與, 공수처 논란에 "적법수사" 방어막…'윤로남불' 역공도</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>윤석열, 다부동 전적기념관 구국용사충혼비 참배</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>해남군, 발로 뛴 만큼 성적도 빛나</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>곡성군, 사회조사 결과 정주 환경은 만족 기업 유치 필요</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>부산 해운대구, 올해 각종사업 잇단 성과 '상복 터졌네'</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>[사사건건] 이재명 “분노의 언어보다 희망의 언어 써달라”</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>부산 서구, 2021 주소정보 업무 우수지자체 선정</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>넷플·디즈니 등 'OTT 전쟁'…내년 제작비만 1150억달러</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>동해안 최북단의 '붉은 유혹'…검은 호랑이가 마중 나왔다</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>서울시의회, 서울농수산식품공사 사장 후보자 청문보고서 채택</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>손에 쥔 편지·탁자 위 반지…한 폭 초상화에 중세 무역을 담다</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>지지자들 향해 인사하는 윤석열 대선후보</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>상사와 다툰 후 쓰러져 사망···법원 "업무상 재해"</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>이재명 "산모·아이 돌봄 지원 받도록…공공산후조리원 대폭 확충"</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>한국의 죽음정치… "무반응이야말로 자살의 근본적 원인"</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>대선 후보 지지율  ‘서이동윤(西李東尹)’ 현상 뚜렷 [한신협 여론조사]</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>[MK라씨로] 외국인, 메타버스·VR 관련주 보유 늘려</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>광주시교육청, 공립 중등교사 등 임용 제1차 시험 합격자 발표</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>대형마트 5층 벽 뚫고 택시 추락…1명 사망 · 7명 부상</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>지지자들 향해 인사하는 윤석열 대선후보</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>국토부 "집값 안정세 자신 못한다"…대구·동두천 규제지역 유지</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>천정배 등 호남계 비문 與 복당…송영길 "귀한 동지들"</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>지지자들 향해 인사하는 윤석열 대선후보</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>남재환 가톨릭대 교수, 과기부장관 표창…"국내 백신 개발 기여"</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>"尹 '무릎 꿇느니 서서 죽겠다' 발언 무게 아는가"…與 "삭제하라"</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>지지자들 향해 인사하는 윤석열 대선후보</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>중부해경청, 현장의견 반영한 방제장비 개발 보급</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>국토부, 조정대상지역 등 현행 규제지역 유지…"내년 상반기 재논의"</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>내년부터 입양축하금 200만원·입양아동 양육수당 월20만원 지급</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>천정배·유성엽 등 12명 민주당 입당… 다음 달 17일까지 복당 허용</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>투투 대주교 추모 보라색 조명 밝힌 남아공 케이프타운시 청사</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>[Bull&amp;Bear;] 전기차 모멘텀 타고 디아이씨 급등</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>여야 모두 야당 땐 ‘사찰’ 주장…통신자료 제공 법개정해야</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>&lt;인사&gt; 생명보험협회</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>이재명, 서해5도 경비단 찾아 "불법 어업 무력 저항에 무관용 강경 대응 필요"</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>오늘의 부고 종합</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>[인사] 한국가스안전공사</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>2050 절반 해외직구 이용... 이용금액 4조9000억 '사상 최대'</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>中 10대 기술기업 거부들 규제·주가하락에 올해 94조 날려</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>이통 3사, 패스 앱 QR출입증 증명 기능 강화</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>호남계 '비문' 인사들 민주당 복당</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>'Mr. 쓴소리' 야나이 "코로나 쇄국이 日 죽인다"</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>오늘의 인사 종합</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>[표] 주요 증시 지표 (12월 30일)</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>오병권 권한대행, 광주 제설 전진기지 현장 점검</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>"또 고령운전자 사고"…잇따르는 대형사고에 대책 서둘러야</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>'오세훈표 신속 재건축' 판 커졌다…압구정 등 18곳 추진(종합)</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>[영상] 5층서 도로로 다이빙하듯…대형마트 벽 뚫고 택시 추락</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>동원F&amp;B;도 컵커피 가격 인상…hy 야쿠르트 가격도 오른다</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>화성시, 31일부터 쓰레기봉투 값 인상…20ℓ 540원→600원</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>레뱅드매일, 임인년 호랑이 와인 세트 출시</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>이재명 “예비내각 생각, 통합정부도” 윤석열 “정권교체 안 하면 당 뿌리뽑혀”</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>로봇 산업 강조한 윤석열, ‘로봇세’ 묻자 “말도 안 되는 얘기”</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>'호남계 비문' 유성엽, 민주당 복당</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>유치원 방학 기간 연장 소식에 난감해진 학부모들…“갑자기 아이 어디에 맡기나”</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>신지예 "성폭력 종식시키기 위한 유일한 후보는 윤석열"</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>'호남계 비문' 천정배, 민주당 복당</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>일자리 넘치는데 퇴사 '러시'…올해 美 노동시장 역대 최악 불균형</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>개미 울리는 물적분할에 고승범 "법적 측면 포함 대책 검토"</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>정권 교체 50.9%, 정권 재창출 39.2% [한신협 여론조사]</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>FTC chief, French digital minister discuss online platform regulation</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>與 이상민 "공수처 통신조회, 법적 요건 충족했는지 의문"</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>동해 망상 2·3지구 시행사 실시계획 승인 신청…개발사업 시동</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>윤석열, 다부동 전적기념관 구국용사충혼비 참배</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>더불어민주당으로 돌아온 천정배</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>천정배 등 '호남 비문계' 민주당 복당</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>'호남 비문계' 천정배 등 민주당 복당</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>[사사건건] 국민의힘 의총, 마이크 잡은 공수처장</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>윤석열, 다부동 전적기념관 구국용사충혼비 참배</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>전북 김광수·유성엽·김종회·김세웅 전 의원, 민주당 복당</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>광주 어린이보호구역 주정차 전면금지…1월1일 시행</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>다부동 전적기념관 구국용사충혼비 참배하는 윤석열</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>[날씨] 호남·충남 폭설‥내일, 세밑 한파 절정</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>다부동 전적기념관 구국용사충혼비 참배하는 윤석열</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>美 OTT ‘쩐의전쟁’, 넷플릭스·디즈니 내년에 136조 퍼붓는다</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>시민단체 '성매매 의혹' 이준석 검찰에 고발</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>미리보는 CES...글로벌 ICT 트렌드 현주소</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>“50대 전후 몸 다시 만들라…뱃살 빼고 근육 더하고”</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>환경부, 폐교 활용 환경체험교육관 추진…2024년 개관</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>[이슈폴폴] 여론조사로 풀어 보는 정치…12월 다섯째주 민심은?</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>모델가수 신광우씨와 딸, 2대에 걸쳐 사할린 동포 어르신 돕기</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>천정배 등 호남계 12명, 민주당 복당</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>최종 임상 단계 진입한 백신 후보물질은 44종</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>최고의 쉼</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>경북경찰청서 총경 2명 배출…김시동 홍보계장·최문태 강력계장</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>김지형 삼성준법위원장 "위원회는 백신…아프고 싫어도 맞아야"</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>[인사]질병관리청</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>골프존문화재단, 11년 연속 지역 소외계층 아동 3,800여 명에게 연말 선물 전달</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>구국용사충혼비에 헌화하는 윤석열</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>코스피 마지막 거래일 2,970선 마감‥삼성전자 이틀째 하락 흐름</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>'웅동학원' 채용비리·허위소송 조국 동생 조권 징역 3년 확정</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>"현행 거리두기 3주 연장" 괴문서 확산…"결정된 것 없다"</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>윤석열 처가 ‘개발 특혜 의혹’ 양평군청 압수수색</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>Virus Outbreak Germany</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>국토부, 현행 규제지역 유지... 내년 상반기 해제·신규지정 재논의</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>[노컷브이]공수처장 불러놓고는 입막는 '복도 의총' 국힘</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>[인사] 한양증권</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>이재명 39.4, 윤석열 39.5 ‘초박빙’…한신협 여론조사</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>말 못 하는 변비, 이거 먹고 좋아졌다? [식탐]</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>[마켓인]국민연금 10월 말 수익률 7.63%…해외주식 27%</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>'수사기밀 누설 의혹' 이태종 전 법원장 '무죄' 확정</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>[사설]소상공인 과감하게 지원하자</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>술 취해 어선 7㎞ 운항한 선장…벌금 1500만원</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>뮤지컬은 아름다운 거짓말…찬란한 어둠속에서 함께하죠</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>"최태원이 쏜다"…'300% 특별성과급' SK하이닉스  들썩</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>(사)대경ICT산업협회, 대구쪽방상담소에 성금 모금액 기부</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>‘3세 경영’ 속도내는 SPC그룹…허진수·허희수 ‘두 아들’ 전면 배치</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>올해 증시 마지막 날 코스피 2970선으로 마감...한 해 동안 3.63% 상승</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>메타버스 파면 돈 나와…플레이댑, ‘로블록스-NFT 연계’ 시도</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>엘가토, 비대면 시대 줌인(Zoom In) 선두 행보 눈길</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>'메타버스·NFT株' 2021년 급등주 '싹쓸이'…15배 폭등한 종목은?</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>중국 지린 축제서 19㎏짜리 물고기 5.6억원에 낙찰</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>압수수색을 마치고 철수하는 경찰</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>양평군청 압수수색 마친 경기남부경찰청 반부패경제범죄수사대</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>현대차 아산공장, 내년 1월 생산 일시 중단…전기차 생산 준비</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>충남교육청, 인권 친화적 학교생활규정 제·개정 권고</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>Virus Outbreak Germany</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>Lee-illegal fishing</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>충북 16시 58명 확진…초등학교·학원 관련 연쇄감염 계속</t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>더불어민주당 입당식</t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>천정배 전 의원에게 꽃다발 전하는 송영길 당대표</t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>천정배 전 의원 등 민주당 입당</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>더불어민주당 입당식</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>민주당 입당사하는 천정배 전 의원</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>더불어민주당 입당식</t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>입장하는 송영길-천정배</t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>민주당 입당사하는 유성엽 전 의원</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>환영사하는 송영길 민주당 대표</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>인사나누는 송영길 대표와 유성엽 전 의원</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>천정배 전 의원 등 민주당 입당</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>인플레이션이냐 오미크론이냐, 딜레마에 빠진 세계 경제</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>[퇴근길 날씨]충청·전북·경북서부 '대설특보'…저녁 시간당 3~5㎝ 눈</t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>공수처 논란에 이재명 “사찰 아니다” 윤석열 “미친 사람들”</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>직장 상사와 다툰 후 쓰러져 사망… 법원 “업무상 재해로 인정돼”</t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>카트 타고 남해 한바퀴…노곤노곤 오션뷰 반신욕…묵은 스트레스 날아간다</t>
+        </is>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>"현재 거리두기 강화 유지해야 2주뒤 하루확진자 4000명대로 떨어져"</t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>“공수처 대선개입” vs “사찰 아니고 야당 내로남불”…법사위 여야 충돌</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>DB손보, 소외계층 지원 위해 한국재난구호에 5억 원 기부</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>라오나크, 프리 시리즈A 유치</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>美 ‘역대급 IPO’에도 올해 상장 주식 3분의 2는 ‘공모가 하회’</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>[오늘의 운세]  12월 31일 금요일 (음력 11월 28일 癸丑)</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>조국 동생, '웅동학원 비리' 징역 3년 확정</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>물러나는 김지형 위원장, "삼성 준법위, 백신 역할 해야"</t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>알래스카 한겨울 기온 19도까지 올랐다</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>한국콜마도 뛰어든 ‘오가노이드’, 주목해야 할 기업은</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>[모빌리티 인사이트] ‘교통약자’라는 단어가 없는 사회를 꿈꿉니다</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>"누가 누굴 걱정해"…민주노총 무기한 파업 사흘째, 여론은 싸늘</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>[인사] 서대문구</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>김주하 AI 앵커와 함께하는 이 시각 주요 뉴스 - 12월 30일 오후 5시</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>문 대통령, 다음 달 3일 마지막 신년사</t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>'열여덟 어른' 자립준비청년 자립 도울 전담기관, 내년 대구에 생긴다</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>대전 유치원 방과후교실 전담사 무기한 총파업 돌입</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>&lt;인사&gt; 한국화재보험협회</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>[날씨] 연말 매서운 세밑 한파…충청·호남 많은 눈</t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>고양시, 올해 착한 임대인에 재산세 감면해 준다</t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>부산에 폐교 활용한 전국 첫 환경체험 교육관 조성</t>
+        </is>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>도시공유플랫폼-트위니, 자율주행 AI 업무협약</t>
+        </is>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>윤석열-이재명 대선후보 0.1%P 격차로 초접전…박근혜 사면 ‘잘된 결정’ 65.8%</t>
+        </is>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>"머스크 품 떠나 만들었다" 노스볼트, 유럽 기업 최초로 배터리 생산 성공</t>
+        </is>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>경남 219명 확진·고령 환자 2명 숨져…병상 가동률 61％(종합2보)</t>
+        </is>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>Yonhap News Summary</t>
+        </is>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>부산 해운대에 '기후·환경교육' 거점시설 들어선다</t>
+        </is>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>해운대구 반여초 '에코스쿨'로 본격 변신…폐교후 환경체험교육관으로</t>
+        </is>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>충청권·전북 대설 주의보…중대본 1단계 가동</t>
+        </is>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>2021.12.30 16:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>디지털 성범죄 피해자 지원센터 현장방문</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>2021.12.30 16:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>내년 출생아부터 200만 원 ‘첫 만남 이용권’ 받는다</t>
+        </is>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>2021.12.30 16:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>보령시 옛 모습 등 담은 사진 5천여건 디지털 변환·개방</t>
+        </is>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>2021.12.30 16:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>'수사 기밀 누설 혐의' 이태종, 무죄 확정</t>
+        </is>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>2021.12.30 16:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>대구·세종 조정지역 유지하기로…“내년 상황 모니터링 필요”</t>
+        </is>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>2021.12.30 16:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>울산 중구, 성인발달장애인 한글교재 제작</t>
+        </is>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>2021.12.30 16:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>서울시의회, 서울농수산식품공사 사장 후보자 청문보고서 채택</t>
+        </is>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>2021.12.30 16:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>[게시판] 연세대-차의과학대, 교류 협정·교육과정 공동개발 협약</t>
+        </is>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>2021.12.30 16:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>`저평가 늪` 빠진 한국 금융사…`저배당·이자 수익 편중` 발목</t>
+        </is>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>2021.12.30 16:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>신규 확진 5천37명‥병상 가동률 60%대</t>
+        </is>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>2021.12.30 16:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>상표 도용, 연예인 사진광고 무단 사용…쇼핑몰 업자 벌금형</t>
+        </is>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>2021.12.30 16:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>연말 분위기 실종된 부산…"알바생 뽑았는데 다 돌려보내"</t>
+        </is>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>2021.12.30 16:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>[인사] 질병관리청</t>
+        </is>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>2021.12.30 16:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>[인천] 인천시, 해넘이·해맞이 명소 일시 폐쇄</t>
+        </is>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>2021.12.30 16:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>코로나·한파 속 온정 나눔 잇따라…광주 사랑의 온도탑 83.4도</t>
+        </is>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>2021.12.30 16:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>[현장의재구성] 2022년은 우리의해…호랑이 5남매 이만큼 컸어요</t>
+        </is>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>2021.12.30 16:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>[르포]“윤석열 사죄해야” vs “그래도 윤석열”…복잡한 대구 민심</t>
+        </is>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>2021.12.30 16:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>현대건설, 국내외 사회공헌 활동 진행</t>
+        </is>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>2021.12.30 16:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>[인사] 충북도</t>
+        </is>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>2021.12.30 16:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>윤성로 4차위원장 "한국, '핑크펭귄'처럼 디지털대전환 주도해야"</t>
+        </is>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>2021.12.30 16:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>길가는 여성 사진 찍고 데이트?…시트로엥 이집트 광고 성희롱 논란</t>
+        </is>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>2021.12.30 16:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>오병권 경기지사 대행, 대설 대비 광주 제설 전진기지 점검</t>
+        </is>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>2021.12.30 16:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>5년 동안 美 은행주 48% 오를 동안 한국은 고작 8%</t>
+        </is>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>2021.12.30 16:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>해남군, 솔라시도 기업도시 ‘지역거점 스마트시티’ 조성</t>
+        </is>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>2021.12.30 16:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>'아듀 2021' 증시 폐장…새해 1월 3일 오전 10시 개장</t>
+        </is>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>2021.12.30 16:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>제주경찰청 구슬환 경정, '경찰의 꽃' 총경 승진</t>
+        </is>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>2021.12.30 16:58</t>
         </is>
       </c>
     </row>
